--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cambridge Technology Enterprises Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cambridge Technology Enterprises Ltd/Pruned_Excel/Pruned_Quarterly-resul_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="109">
   <si>
     <t>Quarterly Results of Cambridge Technology Enterprises(in Rs. Cr.)</t>
   </si>
@@ -209,6 +209,138 @@
   </si>
   <si>
     <t>Sep '24</t>
+  </si>
+  <si>
+    <t>4.94</t>
+  </si>
+  <si>
+    <t>5.26</t>
+  </si>
+  <si>
+    <t>5.14</t>
+  </si>
+  <si>
+    <t>6.07</t>
+  </si>
+  <si>
+    <t>7.37</t>
+  </si>
+  <si>
+    <t>6.29</t>
+  </si>
+  <si>
+    <t>5.34</t>
+  </si>
+  <si>
+    <t>6.55</t>
+  </si>
+  <si>
+    <t>7.16</t>
+  </si>
+  <si>
+    <t>8.18</t>
+  </si>
+  <si>
+    <t>7.56</t>
+  </si>
+  <si>
+    <t>9.61</t>
+  </si>
+  <si>
+    <t>9.24</t>
+  </si>
+  <si>
+    <t>10.09</t>
+  </si>
+  <si>
+    <t>9.72</t>
+  </si>
+  <si>
+    <t>10.24</t>
+  </si>
+  <si>
+    <t>9.47</t>
+  </si>
+  <si>
+    <t>20.09</t>
+  </si>
+  <si>
+    <t>23.25</t>
+  </si>
+  <si>
+    <t>8.39</t>
+  </si>
+  <si>
+    <t>10.13</t>
+  </si>
+  <si>
+    <t>11.17</t>
+  </si>
+  <si>
+    <t>6.97</t>
+  </si>
+  <si>
+    <t>9.63</t>
+  </si>
+  <si>
+    <t>11.87</t>
+  </si>
+  <si>
+    <t>8.49</t>
+  </si>
+  <si>
+    <t>8.38</t>
+  </si>
+  <si>
+    <t>9.06</t>
+  </si>
+  <si>
+    <t>11.23</t>
+  </si>
+  <si>
+    <t>8.86</t>
+  </si>
+  <si>
+    <t>11.27</t>
+  </si>
+  <si>
+    <t>10.75</t>
+  </si>
+  <si>
+    <t>12.67</t>
+  </si>
+  <si>
+    <t>11.78</t>
+  </si>
+  <si>
+    <t>13.70</t>
+  </si>
+  <si>
+    <t>14.59</t>
+  </si>
+  <si>
+    <t>15.21</t>
+  </si>
+  <si>
+    <t>19.56</t>
+  </si>
+  <si>
+    <t>18.48</t>
+  </si>
+  <si>
+    <t>21.10</t>
+  </si>
+  <si>
+    <t>19.86</t>
+  </si>
+  <si>
+    <t>16.89</t>
+  </si>
+  <si>
+    <t>17.88</t>
+  </si>
+  <si>
+    <t>17.32</t>
   </si>
 </sst>
 </file>
@@ -638,8 +770,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>4.94</v>
+      <c r="B2" t="s">
+        <v>65</v>
       </c>
       <c r="C2">
         <v>4.94</v>
@@ -663,7 +795,7 @@
         <v>0.88</v>
       </c>
       <c r="J2">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K2">
         <v>0.88</v>
@@ -700,8 +832,8 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>5.26</v>
+      <c r="B3" t="s">
+        <v>66</v>
       </c>
       <c r="C3">
         <v>5.26</v>
@@ -725,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -762,8 +894,8 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>5.14</v>
+      <c r="B4" t="s">
+        <v>67</v>
       </c>
       <c r="C4">
         <v>5.14</v>
@@ -787,7 +919,7 @@
         <v>0.09</v>
       </c>
       <c r="J4">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K4">
         <v>0.09</v>
@@ -824,8 +956,8 @@
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>6.07</v>
+      <c r="B5" t="s">
+        <v>68</v>
       </c>
       <c r="C5">
         <v>6.07</v>
@@ -849,7 +981,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J5">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K5">
         <v>0.6899999999999999</v>
@@ -886,8 +1018,8 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>7.37</v>
+      <c r="B6" t="s">
+        <v>69</v>
       </c>
       <c r="C6">
         <v>7.37</v>
@@ -911,7 +1043,7 @@
         <v>0.38</v>
       </c>
       <c r="J6">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K6">
         <v>0.38</v>
@@ -948,8 +1080,8 @@
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>6.29</v>
+      <c r="B7" t="s">
+        <v>70</v>
       </c>
       <c r="C7">
         <v>6.29</v>
@@ -973,7 +1105,7 @@
         <v>0.4</v>
       </c>
       <c r="J7">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K7">
         <v>0.4</v>
@@ -982,7 +1114,7 @@
         <v>0.4</v>
       </c>
       <c r="M7">
-        <v>0.2372093023255814</v>
+        <v>0.24</v>
       </c>
       <c r="N7">
         <v>0.4</v>
@@ -1010,8 +1142,8 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>5.34</v>
+      <c r="B8" t="s">
+        <v>71</v>
       </c>
       <c r="C8">
         <v>5.34</v>
@@ -1035,7 +1167,7 @@
         <v>-1.4</v>
       </c>
       <c r="J8">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K8">
         <v>-1.4</v>
@@ -1072,8 +1204,8 @@
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>6.55</v>
+      <c r="B9" t="s">
+        <v>72</v>
       </c>
       <c r="C9">
         <v>6.55</v>
@@ -1097,7 +1229,7 @@
         <v>0.68</v>
       </c>
       <c r="J9">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K9">
         <v>0.68</v>
@@ -1106,7 +1238,7 @@
         <v>0.68</v>
       </c>
       <c r="M9">
-        <v>0.2372093023255814</v>
+        <v>0.24</v>
       </c>
       <c r="N9">
         <v>0.68</v>
@@ -1134,8 +1266,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>7.16</v>
+      <c r="B10" t="s">
+        <v>73</v>
       </c>
       <c r="C10">
         <v>7.16</v>
@@ -1159,7 +1291,7 @@
         <v>1.26</v>
       </c>
       <c r="J10">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K10">
         <v>1.26</v>
@@ -1196,8 +1328,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>8.18</v>
+      <c r="B11" t="s">
+        <v>74</v>
       </c>
       <c r="C11">
         <v>8.18</v>
@@ -1221,7 +1353,7 @@
         <v>0.78</v>
       </c>
       <c r="J11">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K11">
         <v>0.78</v>
@@ -1258,8 +1390,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>7.56</v>
+      <c r="B12" t="s">
+        <v>75</v>
       </c>
       <c r="C12">
         <v>7.56</v>
@@ -1320,8 +1452,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>9.609999999999999</v>
+      <c r="B13" t="s">
+        <v>76</v>
       </c>
       <c r="C13">
         <v>9.609999999999999</v>
@@ -1345,7 +1477,7 @@
         <v>1.08</v>
       </c>
       <c r="J13">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K13">
         <v>1.08</v>
@@ -1382,8 +1514,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>9.24</v>
+      <c r="B14" t="s">
+        <v>77</v>
       </c>
       <c r="C14">
         <v>9.24</v>
@@ -1407,7 +1539,7 @@
         <v>1.57</v>
       </c>
       <c r="J14">
-        <v>0.3748484848484848</v>
+        <v>0.37</v>
       </c>
       <c r="K14">
         <v>1.57</v>
@@ -1444,8 +1576,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>10.09</v>
+      <c r="B15" t="s">
+        <v>78</v>
       </c>
       <c r="C15">
         <v>10.09</v>
@@ -1506,8 +1638,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>9.720000000000001</v>
+      <c r="B16" t="s">
+        <v>79</v>
       </c>
       <c r="C16">
         <v>9.720000000000001</v>
@@ -1568,8 +1700,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>10.24</v>
+      <c r="B17" t="s">
+        <v>80</v>
       </c>
       <c r="C17">
         <v>10.24</v>
@@ -1630,8 +1762,8 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>9.470000000000001</v>
+      <c r="B18" t="s">
+        <v>81</v>
       </c>
       <c r="C18">
         <v>9.470000000000001</v>
@@ -1692,8 +1824,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>20.09</v>
+      <c r="B19" t="s">
+        <v>82</v>
       </c>
       <c r="C19">
         <v>20.09</v>
@@ -1754,8 +1886,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>23.25</v>
+      <c r="B20" t="s">
+        <v>83</v>
       </c>
       <c r="C20">
         <v>23.25</v>
@@ -1816,8 +1948,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>8.390000000000001</v>
+      <c r="B21" t="s">
+        <v>84</v>
       </c>
       <c r="C21">
         <v>8.390000000000001</v>
@@ -1878,8 +2010,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>10.13</v>
+      <c r="B22" t="s">
+        <v>85</v>
       </c>
       <c r="C22">
         <v>10.13</v>
@@ -1940,8 +2072,8 @@
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>11.17</v>
+      <c r="B23" t="s">
+        <v>86</v>
       </c>
       <c r="C23">
         <v>11.17</v>
@@ -2002,8 +2134,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>6.97</v>
+      <c r="B24" t="s">
+        <v>87</v>
       </c>
       <c r="C24">
         <v>6.97</v>
@@ -2064,8 +2196,8 @@
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>9.630000000000001</v>
+      <c r="B25" t="s">
+        <v>88</v>
       </c>
       <c r="C25">
         <v>9.630000000000001</v>
@@ -2126,8 +2258,8 @@
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>11.87</v>
+      <c r="B26" t="s">
+        <v>89</v>
       </c>
       <c r="C26">
         <v>11.87</v>
@@ -2188,8 +2320,8 @@
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>8.49</v>
+      <c r="B27" t="s">
+        <v>90</v>
       </c>
       <c r="C27">
         <v>8.49</v>
@@ -2250,8 +2382,8 @@
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>8.380000000000001</v>
+      <c r="B28" t="s">
+        <v>91</v>
       </c>
       <c r="C28">
         <v>8.380000000000001</v>
@@ -2312,8 +2444,8 @@
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>9.06</v>
+      <c r="B29" t="s">
+        <v>92</v>
       </c>
       <c r="C29">
         <v>9.06</v>
@@ -2374,8 +2506,8 @@
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>7.37</v>
+      <c r="B30" t="s">
+        <v>69</v>
       </c>
       <c r="C30">
         <v>7.37</v>
@@ -2436,8 +2568,8 @@
       <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B31">
-        <v>11.23</v>
+      <c r="B31" t="s">
+        <v>93</v>
       </c>
       <c r="C31">
         <v>11.23</v>
@@ -2498,8 +2630,8 @@
       <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="B32">
-        <v>8.859999999999999</v>
+      <c r="B32" t="s">
+        <v>94</v>
       </c>
       <c r="C32">
         <v>8.859999999999999</v>
@@ -2560,8 +2692,8 @@
       <c r="A33" t="s">
         <v>51</v>
       </c>
-      <c r="B33">
-        <v>11.27</v>
+      <c r="B33" t="s">
+        <v>95</v>
       </c>
       <c r="C33">
         <v>11.27</v>
@@ -2622,8 +2754,8 @@
       <c r="A34" t="s">
         <v>52</v>
       </c>
-      <c r="B34">
-        <v>10.75</v>
+      <c r="B34" t="s">
+        <v>96</v>
       </c>
       <c r="C34">
         <v>10.75</v>
@@ -2684,8 +2816,8 @@
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="B35">
-        <v>12.67</v>
+      <c r="B35" t="s">
+        <v>97</v>
       </c>
       <c r="C35">
         <v>12.67</v>
@@ -2746,8 +2878,8 @@
       <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="B36">
-        <v>11.78</v>
+      <c r="B36" t="s">
+        <v>98</v>
       </c>
       <c r="C36">
         <v>11.78</v>
@@ -2808,8 +2940,8 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="B37">
-        <v>13.7</v>
+      <c r="B37" t="s">
+        <v>99</v>
       </c>
       <c r="C37">
         <v>13.7</v>
@@ -2870,8 +3002,8 @@
       <c r="A38" t="s">
         <v>56</v>
       </c>
-      <c r="B38">
-        <v>14.59</v>
+      <c r="B38" t="s">
+        <v>100</v>
       </c>
       <c r="C38">
         <v>14.59</v>
@@ -2932,8 +3064,8 @@
       <c r="A39" t="s">
         <v>57</v>
       </c>
-      <c r="B39">
-        <v>15.21</v>
+      <c r="B39" t="s">
+        <v>101</v>
       </c>
       <c r="C39">
         <v>15.21</v>
@@ -2994,8 +3126,8 @@
       <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="B40">
-        <v>19.56</v>
+      <c r="B40" t="s">
+        <v>102</v>
       </c>
       <c r="C40">
         <v>19.56</v>
@@ -3056,8 +3188,8 @@
       <c r="A41" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
-        <v>18.48</v>
+      <c r="B41" t="s">
+        <v>103</v>
       </c>
       <c r="C41">
         <v>18.48</v>
@@ -3118,8 +3250,8 @@
       <c r="A42" t="s">
         <v>60</v>
       </c>
-      <c r="B42">
-        <v>21.1</v>
+      <c r="B42" t="s">
+        <v>104</v>
       </c>
       <c r="C42">
         <v>21.1</v>
@@ -3180,8 +3312,8 @@
       <c r="A43" t="s">
         <v>61</v>
       </c>
-      <c r="B43">
-        <v>19.86</v>
+      <c r="B43" t="s">
+        <v>105</v>
       </c>
       <c r="C43">
         <v>19.86</v>
@@ -3242,8 +3374,8 @@
       <c r="A44" t="s">
         <v>62</v>
       </c>
-      <c r="B44">
-        <v>16.89</v>
+      <c r="B44" t="s">
+        <v>106</v>
       </c>
       <c r="C44">
         <v>16.89</v>
@@ -3304,8 +3436,8 @@
       <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B45">
-        <v>17.88</v>
+      <c r="B45" t="s">
+        <v>107</v>
       </c>
       <c r="C45">
         <v>17.88</v>
@@ -3366,8 +3498,8 @@
       <c r="A46" t="s">
         <v>64</v>
       </c>
-      <c r="B46">
-        <v>17.32</v>
+      <c r="B46" t="s">
+        <v>108</v>
       </c>
       <c r="C46">
         <v>17.32</v>
